--- a/__encodeapk/关登芝北京通样板 -.xlsx
+++ b/__encodeapk/关登芝北京通样板 -.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangweixin/Documents/TS_ZFB/git/geshui/Finance-master-local/__encodeapk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140C93D9-C1E7-084A-9353-45978CB07F7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A679DC02-402A-EB47-8909-3F698E8E6642}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9780" yWindow="460" windowWidth="18520" windowHeight="13360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -771,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C11:C12"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -929,7 +929,7 @@
         <v>76</v>
       </c>
       <c r="V2" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:22">
